--- a/test_result_data/hasil_uji_1.xlsx
+++ b/test_result_data/hasil_uji_1.xlsx
@@ -472,21 +472,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1.         0.84210526]</t>
+          <t>[0.  0.8]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.25 1.  ]</t>
+          <t>[0. 1.]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.4        0.91428571]</t>
+          <t>[0.         0.88888889]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -500,21 +500,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[1.         0.82758621]</t>
+          <t>[0.  0.8]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.16666667 1.        ]</t>
+          <t>[0. 1.]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.28571429 0.90566038]</t>
+          <t>[0.         0.88888889]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -528,21 +528,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.52941176 0.93023256]</t>
+          <t>[1.         0.88888889]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.75       0.83333333]</t>
+          <t>[0.5 1. ]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.62068966 0.87912088]</t>
+          <t>[0.66666667 0.94117647]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -556,21 +556,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.47368421 0.92682927]</t>
+          <t>[0.72727273 0.91836735]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.75       0.79166667]</t>
+          <t>[0.66666667 0.9375    ]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.58064516 0.85393258]</t>
+          <t>[0.69565217 0.92783505]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -584,21 +584,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.42857143 0.86956522]</t>
+          <t>[1.         0.81355932]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.5        0.83333333]</t>
+          <t>[0.08333333 1.        ]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.46153846 0.85106383]</t>
+          <t>[0.15384615 0.89719626]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_1.xlsx
+++ b/test_result_data/hasil_uji_1.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Presisi</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -470,23 +470,17 @@
           <t>Naive Bayes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.  0.8]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.         0.88888889]</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9142857142857143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
@@ -498,23 +492,17 @@
           <t>Support Vector Machine</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.  0.8]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.         0.88888889]</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9056603773584906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -526,23 +514,17 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[1.         0.88888889]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.5 1. ]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0.66666667 0.94117647]</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0.9302325581395349</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8791208791208791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -554,23 +536,17 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.72727273 0.91836735]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.66666667 0.9375    ]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0.69565217 0.92783505]</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8695652173913043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -582,23 +558,17 @@
           <t>Random Forest</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[1.         0.81355932]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.08333333 1.        ]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0.15384615 0.89719626]</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0.8653846153846154</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_1.xlsx
+++ b/test_result_data/hasil_uji_1.xlsx
@@ -537,16 +537,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9072164948453607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9375</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
   </sheetData>
